--- a/500all/speech_level/speeches_CHRG-114hhrg98313.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98313.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. On the evening of January 6, North Korea likely conducted its fourth nuclear weapons test. North Korean leader Kim Jong Un claimed that the test was a fusion reactive hydrogen bomb. Most experts are skeptical, given seismic evidence and North Korea's penchant for overstatement. But it is, nonetheless, incredibly concerning.    We convene this hearing today not only to join the international community in condemning the test, but to work to find a feasible lasting solution to address the North Korean nuclear threat.    For many in the United States, if we think of North Korea it is usually the butt of a joke, reference to either The Interview or Team America movies. Despite repeated calls from both respectable civilian thinkers and top military leadership citing North Korea as a top threat in the Pacific theater, North Korea seems to have been off the Obama administration's radar.    Instead, they have dismissed the imminent threat by employing its so-called ``strategy of patience''--or, excuse me, ``strategic patience.'' For our allies in the region, North Korean provocations mean so much more, and it should for the United States as well.    History has proven that North Korea has every intention to continue advancing its nuclear program. In an effort to strengthen both domestic and international positions, the United States has shown a willingness to negotiate with North Korea if it is simply willing to first take steps toward denuclearization. North Korea has shown no interest in doing so, but it has successfully extracted food assistance and other foreign assistance from us by threatening nuclear activity. This is an unacceptable cycle that cannot continue.    Due to North Korea's nuclear threat and proximity to our allies, South Korea, and Japan, our response options are limited, but they largely fall into two categories--sanctions and information flow. Some argue for United Nations sanctions, but others say that would exert little pressure on North Korea, largely due to China's lack of enforcement. Some speak of North Korea as the most heavily sanctioned state in the world, but that is simply not the case.    For example, Iran is subject to sanctions under 18 U.S. executive orders, and North Korea is subject to six. I applaud Chairman Royce for his work on the North Korea sanctions legislation which passed the House yesterday. I am proud to vote for that, and I think it is a good start. But I think much more to be done, and that is why we are here today.    China's relationships with North Korea continues to be a problem. China favors North Korea's status quo over the demise of the Kim regime, which it fears could mean a unified United States allied Korea as a neighbor and a sizeable flood of refugees crossing their border.    These vested interests are why China continues to prop up this pariah state with food, oil, and assistance. I am deeply disappointed that China continues to allow North Korea to destabilize the region in this manner. China must tighten sanctions and really enforce the sanctions that are in place and apply the unique pressure that only it--North Korea's patron--can provide.    While a nuclear test quickly draws the world's attention toward North Korean leadership, we must remember that there are 24 million people living in this closed-off state, starved of basic necessities. Furthermore, citizens are brainwashed into believing that their leadership is actually helping them.    The North Korean Human Rights Act of 2004 initiated radio broadcasting to provide basic knowledge of the outside world to the people of North Korea. Twelve years have since passed and technological advances have been made, and our policies should reflect that reality. I intend to introduce legislation that would update this program this provide greater, more useful information to inform and empower their citizens.    In 2006, North Korea was removed from the State Sponsor of Terrorism List in an attempt to bring it to the negotiation table and ultimately halt its nuclear program. Congress has debated this issue, and many members believe it should be put back on the list. Count me in that category.    Given the Sony cyberattacks, the shelling of South Korean ships, North Korea's alleged ties to Hamas, Hezbollah, and Iran, and now this fourth nuclear test, perhaps--maybe perhaps nuclear should be placed back on the list.    The leaders of North Korea, as well as China, should understand that every Pyongyang provocation will induce a congressional response in an attempt to alter North Korea's ways. There is calamity across the globe blurring our focus, but the Obama administration's employment of ``strategic patience'' comes, I believe, at our peril. Let's be done with ``strategic patience.'' It is time for strategic clarity. We must be proactive in our efforts, and I look forward to this important discussion of any recommendations this distinguished panel can offer.    Members present will be permitted to submit written statements to be included in the official hearing record. And without objection, the hearing record will remain open for 5 calendar days to allow statements, questions, and extraneous materials for the record, subject to the length limitation in the rules.    And I would like to turn the time over to the ranking member for any comments that he might make.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you. North Korea probably tested a hydrogen-boosted device, one that made use of hydrogen isotopes but did not get its power from the fusion of hydrogen atoms. That being said, it is perhaps half a decade or a decade before North Korea tests a genuine thermonuclear weapon. I am sure our witnesses will be able to clarify and give us a more precise estimate.    We have throughout this century, which is now in its 16th year, had a policy which has completely failed us as foreign policy, but has achieved what some would argue is the guiding force behind foreign policy, which is meeting domestic political concerns. We have not--neither the last administration nor this administration--slowed down North Korea's nuclear program for any significant time, and continuing this policy, or repeating what we have done but only in a louder voice, is not going to yield a different result.    But our policy has allowed us at times--for various times--to seem tough, and we have avoided offending Wall Street. These are important domestic political objectives which have been fully achieved. So if viewed from the standpoint of being popular domestically, our policy is a success. If we want to protect the world from North Korean nuclear weapons, it has been a complete failure.    In terms of what we could do if sounding tough wasn't important, we could make it clear to China that, if there was a unified Korea, American forces would not be north of the 38th parallel and might even be further south. There would be less reason for them to be there.    We do not have any military forces defending any other China neighbor from China. Our troops in South Korea are there to defend South Korea from North Korea. We could offer North Korea a package of aid--that has been done before--but a non-aggression pact that they asked for and we refused to provide, because Dick Cheney imagined invasion, or at least didn't want to give up that opportunity sometime in the future.    But the most important thing we need to do, and the thing we are least likely to do, is to make it clear to China that their access to U.S. markets depends upon them getting tough with North Korea. Wall Street would be aghast if we actually did it, so we won't. So we are likely to continue the current circumstance. China is indeed miffed by what North Korea has done, but is unwilling to change its policy, and, of course, China has been miffed by North Korea many times in the past.    China will not change its policy unless the reality changes, and the current reality is they have free access to U.S. markets and that won't be changed if they choose to continue the policy that they have continued throughout this century, which is to subsidize North Korea.    So if we want a policy that doesn't meet domestic political objectives, but simply maximizes the carrots and sticks on North Korea, it would be a matter of a non-aggression pact on the 38th parallel, and the threat of tariffs on Chinese goods if China continues--while always questioning--it but continues a policy of subsidizing North Korea.    So my guess is that we will simply continue to pull our hair out--obviously, I have done more of that than most of the witnesses--in worry about North Korea, and talk tough, and do nothing that offends Wall Street. And if you keep doing the same thing for now a 16-year-old century, and expect a different result, that is the definition of insanity.    And a final thing I will ask our witnesses to comment on is whether we would actually get somewhere if we consent--if we agreed that North Korea could have a very limited number of atomic but not thermonuclear weapons, or is there a real prospect of getting them to be a nuclear-free state.    I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman, and thank you for holding this hearing at a very significant moment.    Our relations with both Koreas go back a long way, and I have a long memory. I still remember sitting right here in this room when the Clinton administration was proposing to us that we have--that we cut a deal, basically, with North Korea, that we would be providing them food and fuel for an agreement not to do what they apparently have been doing, which is--I don't care if you want to call it a hydrogen booster device or a hydrogen nuclear weapon; the fact is they obviously have been spending their money on developing ways of mass murdering other people while we have been providing them the money for their food and fuel.    To say that that is absolutely unacceptable is to put it mildly. And, at that time, I indicated, and several other Republicans, I might add, and a couple of other Democrats as well, I might add, pointed out that that is what would happen, and here it has. Surprise, surprise. They have used their resources to develop weapons of mass destruction. We have subsidized them in using our money to provide them food and fuel, which should be coming out of their, how do you say, hydrogen boosting device development budget.    Let me suggest that this nuclear explosion, and the continued--the obvious continued work that North Korea is doing on nuclear military devices, that should at least put us into a mindset that we have to do something different than what we have been doing.    And let me note that President Abe of Japan has made it very, very clear that there are threats to the Pacific, and I would applaud President Abe for reaching out to South Korea at this moment. President Abe of Japan has gone the extra mile to address sensitivities in South Korea that are left over way from World War II.    And he needs to be applauded for that, and he needs to also be encouraged to rebuild Japan's military strength, so that he can work with the United States of America in preserving the peace in that part of the world, instead of having the United States having to carry the entire load on our own.    So with that said, I would finish by saying the other factor is, which the chairman mentioned, China. Just as it was obvious that the North Korea regime, as corrupt and belligerent and as repressive as it is, would be using their money to develop weapons while we provided them food and fuel, it is just as evident that they have a relationship with Beijing that puts Beijing into a position of influence in North Korea, if not dominance of North Korea.    So let us, again, to the point that we applaud President Abe for reaching out and policies that are going to ultimately bring more stability to that part of the world, let us condemn Beijing for not using its influence in a way that would bring more stability and peace to that region.    So we need to work together on this, and, Mr. Chairman, thank you for calling this hearing. Looking forward to hearing for specifics and information from the witnesses that will help us develop our policy now as we start into this new era.    Thank you.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412512</t>
   </si>
   <si>
-    <t>Ami Bera</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Mr. Chairman, and thank you for the timeliness of this hearing. A few weeks ago I had a chance to visit the Republic of Korea, visit with our troops, and spend a few days around Christmas with our troops, also visiting with the Korean foreign secretaries, national security folks, et cetera.    I also had a chance to go up to the demilitarized zone and, you know, chat with our troops, see the Republic of Korea troops. The demilitarized zone is an oxymoron. This is one of the most heavily militarized zones in the world, and it is a constant reminder that we are in a cease fire. we are not in a state of peace.    You know, listening to the remarks of my colleagues, I think it is important for us to learn from what we have tried in the past, and so forth. But the conundrum is North Korea is not easy, and it will require a partnership with the countries in that region.    And, in many cases, we all land at the same place, that China really does have to take a leadership role here. China is the one country that does have some leverage with North Korea, but it will take a partnership between, you know, the Chinese Government, the Russians, Japan, our Korean allies, along with U.S. leadership, in order to address this.    It is in all of our interest to deescalate tensions, to try to bring North Korea into the 21st century. And the other goal that I think many Koreans have of seeing reunification, you know, it is not going to be easy. It will take world leadership. It will take the nations, along with the United States, in that region working together, but it can be done if we put our minds to it. And we have to; there is an urgency now, as indicated by the recent North Korean nuclear tests.    It is complicated, and, you know, the President talked about the threats that, you know, we face in the Middle East. But those are not threats to our very existence as a nation, and North Korea, with the hydrogen bomb, with ballistic missile and ICBM capabilities, are a threat to world stability, and we have got to direct this. There is the urgency of now.    And, Mr. Chairman, I look forward to working with you to kind of navigate this path forward, and it is incredibly important.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>400071</t>
   </si>
   <si>
-    <t>Steve Chabot</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you very much, and thank you, Mr. Chairman, for holding this important hearing. I mean, there is no question that the world has had a problem for a long time with respect to North Korea, particularly their leadership. Whether the grandfather or the father or the son now, they are all equally as crazy, I am afraid, particularly the newest one.    But their own people continue to suffer and to starve. They are the most politically isolated country on the globe. Despite that, they continue--they have absolute contempt for most of the rest of the world, including their neighbors. And with this fourth now in the last number of years nuclear tests, and we have reason to believe it is hydrogen, although that hasn't been confirmed necessarily yet, but, nonetheless, it is terribly disturbing.    I think every administration, from the Clinton administration to the Bush administration to the Obama administration has failed with respect to North Korea, and that is most unfortunate. And now with the increasing sophistication of their missile systems, the United States is at risk as well. But two countries that are even more at risk at, obviously, South Korea and Japan.    And as my colleague, Mr. Rohrabacher from California indicated, China is the key here. China is the only country that has any real influence over North Korea. And the only thing that is going to get China's attention is if those two countries, Japan and South Korea, seriously consider nuclear programs of their own. That is the only thing that is going to get China's attention. It is the last thing China wants.    And so I would urge those two countries to think seriously about this. I am not encouraging them to do it, but even thinking about it and discussing it I think will get China's attention. And maybe China will finally act to put the pressure on North Korea necessary to get them to back off this insanity of one of the poorest countries in the world spending all their money on nuclear weaponry to threaten the rest of the world.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t>412521</t>
   </si>
   <si>
-    <t>Alan S. Lowenthal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lowenthal. Thank you, Mr. Chair, for holding this hearing. I find this very interesting. I think the focus of what you have heard a lot is China, what are we going to do to deal with China in terms of the pressure that China has. To me, there are a couple of questions I would like to understand before we get into what we have to do to press China, or to do anything else; that is, what does China want? Where is China at this--not because of our pressure.    Two, I have seen over the past year or so some articles, especially in the New York Times, about Chinese officials, former military officials, retired, talking about the unsustainability of the Kim regime, and that there is a real concern in China about instability in North Korea. I would like to hear that discussion, that there is going to be pressure from the bottom up. People cannot live under those conditions, and the Chinese know this. The Chinese know, and there are real worries about the Chinese, about what that instability is going to lead to in terms of them.    So that leads us to the third point; that is, when we talk about China, knowing that China--it is not getting China involved. China is very involved with what are the consequences. It may have its own agenda about what it wants to do with this. The question is, besides pressure on China--and we have heard a lot, and I am not saying that that is not a potential--what are the ways of partnership with China? What do you see as the opportunities at this moment to be dealing with?    Thank you very much, and I yield back.</t>
   </si>
   <si>
@@ -127,18 +109,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Klingner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Klingner. Thank you, Mr. Chairman, Ranking Member Sherman, and other distinguished members of the panel. It truly is an honor to be asked to appear before you on such an important issue to our national security.    North Korea's recent nuclear test has again triggered widespread calls to do something tougher on North Korea. But we have been here many times before, and each time administration claims of tough action were taken at face value, pledges to be even tougher the next time were issued, and interest was eventually diverted elsewhere.    More effective action was also hindered by several widely accepted myths about North Korean sanctions. The first myth is that sanctions can't affect an isolated country like North Korea. Targeted financial measures, which are a law enforcement mechanism, are directed against specific entities that violate U.S. laws. Even the most isolated regime, criminal organization, or terrorist group is tied into the global financial order.    The vast majority of all international financial transactions, including those of North Korea, are denominated in dollars, which means they must go through a U.S. Treasury Department regulated bank in the United States. That gives the United States tremendous power and leverage to freeze and seize assets, to impose fines such as a $9-billion fine imposed on a French bank for improper financial transactions with Cuba, Iran, and Sudan, and also to deny access to the U.S. financial system.    As you already pointed out, Mr. Chairman, a second myth is that North Korea is the most heavily sanctioned country in the world. President Obama claims North Korea is the most isolated, the most sanctioned, the most cutoff nation on Earth. That is simply not true. The U.S., the European Union, and the U.N. imposed far more pervasive and compelling measures against Iran than North Korea.    Also, unilaterally, the United States has targeted far fewer North Korean entities than those of the Balkans, Burma, Cuba, Iran, and Zimbabwe. The U.S. has sanctioned more than twice as many Zimbabwean entities as North Korean entities. We have also designated Iran and Burma as primary money laundering concerns, but not North Korea, which is counterfeiting our currency.    The U.S. has sanctioned officials from Burma, Burundi, Congo, Iran, Syria, Sudan, and Zimbabwe, for human rights violations, and sanctioned by name the Presidents of Belarus and Zimbabwe, but not yet sanctioned a single North Korean entity for human rights violations nearly 2 years after a U.N. Commission of Inquiry report concluded the regime was conducting such egregious human rights violations as to constitute crimes against humanity.    The U.S. has also frozen the assets of Sudan, Iranian, and Syrian, but not North Korean, officials and entities for censorship. The list goes on and on, and I have included other examples in my written testimony.    A third myth is there is nothing more the U.S. can impose on North Korea. After he left office, former Assistant Secretary of State Kurt Campbell commented, ``It would be possible for us to put more financial pressure on North Korea. We can make life much more difficult through financial sanctions on North Korea.'' And he also pointed out he was surprised when he was in government to find out that there were about 10 times as many sanctions on Burma as there were on North Korea.    President Obama, Secretary of State John Kerry, and other officials have made similar statements indicating that there are other measures that the U.S. could impose but hasn't.    A fourth myth is that sanctions don't work. As Dr. Cha already pointed out, tougher measures were effective when applied. In 2005, the U.S. designated the Macao-based bank Banco Delta Asia as a money laundering concern for facilitating North Korean illicit activities. As a result of Washington belatedly enforcing its laws, as well as a series of sub rosa meetings by U.S. officials throughout Asia, two dozen financial institutions voluntarily cut back or terminated their business with North Korea.    And a North Korea negotiator admitted to a senior White House official, ``You finally found a way to hurt us.'' Instead, what the U.S. should be doing is implementing the Iran model against North Korea. Just as strong international measures induced Tehran back to the negotiating table, more robust measures are needed to leverage North Korea.    While implementing new sanctions measures is important, fully implementing and enforcing already existing, far-reaching measures is also critical. The U.S. has the tools; we have just lacked the resolve to fully use them.    For years the Obama administration has been hitting the snooze bar on sanctions. It has pursued a policy of timid incrementalism by holding some sanctions in abeyance to be rolled out after the next North Korean violation or provocation. The U.S. instead needs to sharpen the choices for North Korea by raising the risk and cost for those violating laws and U.N. resolutions, not only North Korea but also those that facilitate its actions.    In my written testimony, I provided a lengthy list of very specific recommendations for U.S. and South Korean actions that should be implemented against North Korea. Neither sanctions nor diplomacy alone is a panacea. Both are essential and, along with fully funding U.S. defense requirements, should be mutually reinforcing elements of a comprehensive integrated strategy.    I will conclude my presentation with the same question I posed to this committee 2 years ago. Why has the United States hesitated to impose the same legal measures against North Korea that it has already used against other countries for far less egregious violations of U.S. and international law?    Thank you again for the privilege of appearing before you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Ms. Glaser.</t>
   </si>
   <si>
-    <t>Glaser</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Glaser. Chairman Salmon, Ranking Member Sherman, and distinguished members of the subcommittee, I am honored to have the opportunity to testify today on this very important issue.    As so many of you have already pointed out, cooperation from China, North Korea's main benefactor, is essential to achieving a nuclear-free peninsula. China is North Korea's biggest trading partner. It accounts for 90 percent of North Korea's global trade, provides at least 70 percent of North Korea's crude oil requirements, some 80 percent of its consumer goods, approximately 45 percent of its food, and Chinese investment accounts for almost 95 percent of foreign direct investment in North Korea.    The U.S. should not expect Beijing to completely abandon its ally and forge a common strategy with Washington to squeeze North Korea until it gives up its nuclear weapons or collapses. But it may be possible to persuade China to strictly comply with its existing international commitments to further tighten sanctions on North Korea and to reduce its support or make continued support contingent on specific actions by Pyongyang to return to its denuclearization pledges.    To elicit greater cooperation, the U.S. must attach high priority to North Korea on the U.S.-China agenda, especially in summit meetings between our Presidents, U.S. and Chinese leaders. Cooperation on North Korea should be identified as a litmus test of the proposition that the United States and China can work together where their interests overlap, and the U.S. should then take the following steps.    First, the U.S. should call out China for its failure to enforce existing U.N. sanctions. North Korea has deep networks with Chinese companies and uses these relationships to procure prohibited items from all over the world, routing them through China before onward shipment to North Korea. Designated North Korean entities continue to do business with Chinese companies and visit Chinese ports. North Koreans are reportedly still able to conduct banking transactions in small banks operating in Northeast China along the border. China does not enforce the ban on luxury goods.    Second, the U.S. should press Beijing to agree to the designation of more North Korean individuals and entities in new U.N. Security Council resolution.    Third, the U.S. should encourage Beijing to use its leverage over North Korea in targeted ways to pressure for change in its behavior. China could refuse to engage in new economic projects with North Korea until the government returns to negotiations in good faith. Beijing could reduce the flow of Chinese tourists to North Korea, which has become a significant source of foreign exchange.    Fourth, the United States should encourage China to leverage its assistance to North Korea to influence its behavior. So to deter North Korean long-range missile launches and nuclear tests, China could agree to warn Pyongyang that future provocations would be followed by a cutback in Chinese aid. Beijing could also insist that Pyongyang return to its commitments under the Six Party talks or face substantial reductions in deliveries of crude oil, kerosene, diesel, and gasoline.    And, fifth, the U.S. should press China to not obstruct discussion in U.N. bodies on human rights abuses in North Korea. And my colleague, Victor Cha, has already underscored North Korea's sensitivity to this issue.    Securing cooperation from China to increase pressure on North Korea may be more feasible than in the past. Xi Jinping is a decisive and bold leader who has a clear vision of what is needed to achieve what he calls the ``Chinese dream,'' the great rejuvenation of the Chinese nation. And under Xi's leadership, China has embarked on an effort to end the special relationship of the past between Beijing and Pyongyang and replace it with a normal state-to- state relationship.    Widely viewed as the most powerful leader China has had since Deng Xiaoping, Xi Jinping has sufficient clout to overrule opposition from potent constituencies in China that would resist a tougher stance toward North Korea, especially in the party and the military.    Beijing is not prepared to assume sole responsibility for addressing the North Korean nuclear threat, but China might be willing to do more along the lines that I have outlined if it believes that the U.S. has an effective strategy, is prioritizing the goal of creating a non-nuclear Korean peninsula, and does not seek to use the Korean peninsula to harm Chinese interests.    What does China want? A balance of power in Northeast Asia that is favorable to Chinese interests, and certainly does not threaten Chinese interests.    I believe China does not adamantly oppose Korean unification, but the known burdens and dangers of the status quo today are less risky for China than the uncertainty that unification may bring for Chinese interests.    And I look forward to the discussion. Thank you again.</t>
   </si>
   <si>
@@ -232,9 +208,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman, and welcome to our panel. I begin by taking issue with the ranking member's narrative with respect to Iran in comparing it to North Korea. My narrative would be that this administration took up from the neglect and fecklessness of the previous administration with respect to Iran. And, whether you like it or not, the agreement, the nuclear agreement, is working. They are complying.    And if you want to remove an existential threat to Israel, that is the way we did it, and it is--you know, in my view, it has the best probability of working of any solution offered on the table. Maybe one doesn't like that. Maybe one would have preferred a different alternative. But this is the one the United States Government pursued. I am glad they did. And I think in the long run it will be the best alternative for peace in the region and for taking the nuclear option with respect to Iran off the table.    Now, one of the pieces of leverage we had, in addition to sanctions, was choking off Iran's ability to sell the one product it really has, and that is oil. When it comes to North Korea, we don't have an analogous situation other than weapons. I am not quite sure what it is the North Koreans really have to sell that we can choke off.    Would that be a fair statement, Ms. Glaser?</t>
   </si>
   <si>
@@ -304,9 +277,6 @@
     <t>412477</t>
   </si>
   <si>
-    <t>Scott DesJarlais</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DesJarlais. Thank you, Mr. Chairman, and thank you to our panel of witnesses for your thoughtful insight today. Dr. Cha, I wanted to ask you, do you believe that North Korea would use their nuclear weapons for aggressive actions?</t>
   </si>
   <si>
@@ -346,9 +316,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman. I appreciate Mr. DesJarlais bringing up this issue and each of you expressing your shared concerns about this underappreciation and really a lack of understanding about the threat. I represent Hawaii's 2nd District here. And as you can imagine, being out there in the middle of the Pacific, every time North Korea starts making threats, launching these tests, this is something knowing, as you said, Mr. Klingner, Hawaii and the west coast, at a minimum, already are within range of North Korea's capabilities, both of an ICBM as well as a nuclear weapon.    So this is something that really rings true and is deeply understood by folks in my state who recognize the need for stronger missile defense, who recognize the need for taking this threat with the seriousness that it deserves.    I have got a few questions. The sanctions bill that we passed yesterday, particularly as it relates to hard currency, do you believe that it will have the same effect as in 2005 when it was first put in place? For whomever would like to answer.</t>
   </si>
   <si>
@@ -383,9 +350,6 @@
   </si>
   <si>
     <t>412569</t>
-  </si>
-  <si>
-    <t>Scott Perry</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Perry. Congressman Perry will be fine. Thank you. Thanks to the chairman. Thanks to the panel.    A list of questions here, maybe just all at once, and if you would comment, you know. I understand that we are reportedly in talks with South Korea regarding the reintroduction of nuclear weapons, United States' nuclear weapons onto the peninsula. What is the status of that, if you know? Why wouldn't South Korea be interested?    Regarding the introduction of THAAD, the missile defense interceptor system, why not? Is South Korea concerned that it would be too provocative? Why wouldn't they want that?    Regarding curtailing conventional arms sales, how would that be done? Again, you know, I have been listening, as everybody else has, the whole time saying, ``Why aren't we doing this?'' And you folks are the experts and you don't know, but maybe you can give me some insight into that.    And regarding increasing the pressure on their human rights atrocities, which are just unimaginable to me, what is the best way? What is the best way to do that? And from my standpoint, I, like you folks, don't understand at all why we are not imposing these financial sanctions out of hand, like with your morning coffee. To me, the President should just sign that and on with--and move on to the next terrain feature, but that is my perception.    What would be the response to some of these things from our allies and trading partners in the region? Thank you.</t>
@@ -826,11 +790,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -850,13 +812,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -878,11 +838,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -902,13 +860,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -930,11 +886,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -954,13 +908,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -982,11 +934,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1006,13 +956,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1034,11 +982,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1058,13 +1004,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1086,11 +1030,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1110,13 +1052,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1138,11 +1078,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1162,13 +1100,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1190,11 +1126,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1214,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1240,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1268,11 +1198,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1292,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1320,11 +1246,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1344,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1372,11 +1294,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1396,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1422,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1448,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1474,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1502,11 +1414,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1526,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1552,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1578,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1604,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1630,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1656,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1684,11 +1582,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1708,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1734,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1760,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1786,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1812,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1838,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1864,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1890,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1916,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1942,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1970,11 +1846,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1994,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" t="s">
-        <v>72</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2020,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2046,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" t="s">
-        <v>72</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2072,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2098,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" t="s">
-        <v>72</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2124,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2150,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53" t="s">
-        <v>72</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2176,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2202,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
-      </c>
-      <c r="G55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
         <v>72</v>
-      </c>
-      <c r="H55" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2228,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2254,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" t="s">
-        <v>72</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2280,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2306,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" t="s">
-        <v>72</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2332,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2358,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>71</v>
-      </c>
-      <c r="G61" t="s">
-        <v>72</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2384,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2410,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" t="s">
-        <v>72</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2436,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2462,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
-      </c>
-      <c r="G65" t="s">
-        <v>72</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2488,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2514,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" t="s">
-        <v>72</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2542,11 +2374,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2566,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
-      </c>
-      <c r="G69" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2592,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2618,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
-      </c>
-      <c r="G71" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2644,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2670,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
-      </c>
-      <c r="G73" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2696,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2722,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G75" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2748,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
-      </c>
-      <c r="G76" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2774,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
         <v>95</v>
-      </c>
-      <c r="G77" t="s">
-        <v>96</v>
-      </c>
-      <c r="H77" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2800,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
-      </c>
-      <c r="G78" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2826,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
-      </c>
-      <c r="G79" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2854,11 +2662,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2878,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>109</v>
-      </c>
-      <c r="G81" t="s">
-        <v>110</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2904,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2930,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>109</v>
-      </c>
-      <c r="G83" t="s">
-        <v>110</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2956,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2982,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>109</v>
-      </c>
-      <c r="G85" t="s">
-        <v>110</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3008,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
-      </c>
-      <c r="G86" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3034,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
-      </c>
-      <c r="G87" t="s">
-        <v>110</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3060,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
-      </c>
-      <c r="G88" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3086,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>109</v>
-      </c>
-      <c r="G89" t="s">
-        <v>110</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3112,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G90" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3138,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
+        <v>99</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
         <v>109</v>
-      </c>
-      <c r="G91" t="s">
-        <v>110</v>
-      </c>
-      <c r="H91" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3166,11 +2950,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3190,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>122</v>
-      </c>
-      <c r="G93" t="s">
-        <v>123</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3216,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3242,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
-      </c>
-      <c r="G95" t="s">
-        <v>123</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3268,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3294,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
-      </c>
-      <c r="G97" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3320,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
-      </c>
-      <c r="G98" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3346,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>122</v>
-      </c>
-      <c r="G99" t="s">
-        <v>123</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3374,11 +3142,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3398,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>122</v>
-      </c>
-      <c r="G101" t="s">
-        <v>123</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3426,11 +3190,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3450,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
+        <v>111</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
         <v>122</v>
-      </c>
-      <c r="G103" t="s">
-        <v>123</v>
-      </c>
-      <c r="H103" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3478,11 +3238,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3502,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3530,11 +3286,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98313.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98313.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. On the evening of January 6, North Korea likely conducted its fourth nuclear weapons test. North Korean leader Kim Jong Un claimed that the test was a fusion reactive hydrogen bomb. Most experts are skeptical, given seismic evidence and North Korea's penchant for overstatement. But it is, nonetheless, incredibly concerning.    We convene this hearing today not only to join the international community in condemning the test, but to work to find a feasible lasting solution to address the North Korean nuclear threat.    For many in the United States, if we think of North Korea it is usually the butt of a joke, reference to either The Interview or Team America movies. Despite repeated calls from both respectable civilian thinkers and top military leadership citing North Korea as a top threat in the Pacific theater, North Korea seems to have been off the Obama administration's radar.    Instead, they have dismissed the imminent threat by employing its so-called ``strategy of patience''--or, excuse me, ``strategic patience.'' For our allies in the region, North Korean provocations mean so much more, and it should for the United States as well.    History has proven that North Korea has every intention to continue advancing its nuclear program. In an effort to strengthen both domestic and international positions, the United States has shown a willingness to negotiate with North Korea if it is simply willing to first take steps toward denuclearization. North Korea has shown no interest in doing so, but it has successfully extracted food assistance and other foreign assistance from us by threatening nuclear activity. This is an unacceptable cycle that cannot continue.    Due to North Korea's nuclear threat and proximity to our allies, South Korea, and Japan, our response options are limited, but they largely fall into two categories--sanctions and information flow. Some argue for United Nations sanctions, but others say that would exert little pressure on North Korea, largely due to China's lack of enforcement. Some speak of North Korea as the most heavily sanctioned state in the world, but that is simply not the case.    For example, Iran is subject to sanctions under 18 U.S. executive orders, and North Korea is subject to six. I applaud Chairman Royce for his work on the North Korea sanctions legislation which passed the House yesterday. I am proud to vote for that, and I think it is a good start. But I think much more to be done, and that is why we are here today.    China's relationships with North Korea continues to be a problem. China favors North Korea's status quo over the demise of the Kim regime, which it fears could mean a unified United States allied Korea as a neighbor and a sizeable flood of refugees crossing their border.    These vested interests are why China continues to prop up this pariah state with food, oil, and assistance. I am deeply disappointed that China continues to allow North Korea to destabilize the region in this manner. China must tighten sanctions and really enforce the sanctions that are in place and apply the unique pressure that only it--North Korea's patron--can provide.    While a nuclear test quickly draws the world's attention toward North Korean leadership, we must remember that there are 24 million people living in this closed-off state, starved of basic necessities. Furthermore, citizens are brainwashed into believing that their leadership is actually helping them.    The North Korean Human Rights Act of 2004 initiated radio broadcasting to provide basic knowledge of the outside world to the people of North Korea. Twelve years have since passed and technological advances have been made, and our policies should reflect that reality. I intend to introduce legislation that would update this program this provide greater, more useful information to inform and empower their citizens.    In 2006, North Korea was removed from the State Sponsor of Terrorism List in an attempt to bring it to the negotiation table and ultimately halt its nuclear program. Congress has debated this issue, and many members believe it should be put back on the list. Count me in that category.    Given the Sony cyberattacks, the shelling of South Korean ships, North Korea's alleged ties to Hamas, Hezbollah, and Iran, and now this fourth nuclear test, perhaps--maybe perhaps nuclear should be placed back on the list.    The leaders of North Korea, as well as China, should understand that every Pyongyang provocation will induce a congressional response in an attempt to alter North Korea's ways. There is calamity across the globe blurring our focus, but the Obama administration's employment of ``strategic patience'' comes, I believe, at our peril. Let's be done with ``strategic patience.'' It is time for strategic clarity. We must be proactive in our efforts, and I look forward to this important discussion of any recommendations this distinguished panel can offer.    Members present will be permitted to submit written statements to be included in the official hearing record. And without objection, the hearing record will remain open for 5 calendar days to allow statements, questions, and extraneous materials for the record, subject to the length limitation in the rules.    And I would like to turn the time over to the ranking member for any comments that he might make.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you. North Korea probably tested a hydrogen-boosted device, one that made use of hydrogen isotopes but did not get its power from the fusion of hydrogen atoms. That being said, it is perhaps half a decade or a decade before North Korea tests a genuine thermonuclear weapon. I am sure our witnesses will be able to clarify and give us a more precise estimate.    We have throughout this century, which is now in its 16th year, had a policy which has completely failed us as foreign policy, but has achieved what some would argue is the guiding force behind foreign policy, which is meeting domestic political concerns. We have not--neither the last administration nor this administration--slowed down North Korea's nuclear program for any significant time, and continuing this policy, or repeating what we have done but only in a louder voice, is not going to yield a different result.    But our policy has allowed us at times--for various times--to seem tough, and we have avoided offending Wall Street. These are important domestic political objectives which have been fully achieved. So if viewed from the standpoint of being popular domestically, our policy is a success. If we want to protect the world from North Korean nuclear weapons, it has been a complete failure.    In terms of what we could do if sounding tough wasn't important, we could make it clear to China that, if there was a unified Korea, American forces would not be north of the 38th parallel and might even be further south. There would be less reason for them to be there.    We do not have any military forces defending any other China neighbor from China. Our troops in South Korea are there to defend South Korea from North Korea. We could offer North Korea a package of aid--that has been done before--but a non-aggression pact that they asked for and we refused to provide, because Dick Cheney imagined invasion, or at least didn't want to give up that opportunity sometime in the future.    But the most important thing we need to do, and the thing we are least likely to do, is to make it clear to China that their access to U.S. markets depends upon them getting tough with North Korea. Wall Street would be aghast if we actually did it, so we won't. So we are likely to continue the current circumstance. China is indeed miffed by what North Korea has done, but is unwilling to change its policy, and, of course, China has been miffed by North Korea many times in the past.    China will not change its policy unless the reality changes, and the current reality is they have free access to U.S. markets and that won't be changed if they choose to continue the policy that they have continued throughout this century, which is to subsidize North Korea.    So if we want a policy that doesn't meet domestic political objectives, but simply maximizes the carrots and sticks on North Korea, it would be a matter of a non-aggression pact on the 38th parallel, and the threat of tariffs on Chinese goods if China continues--while always questioning--it but continues a policy of subsidizing North Korea.    So my guess is that we will simply continue to pull our hair out--obviously, I have done more of that than most of the witnesses--in worry about North Korea, and talk tough, and do nothing that offends Wall Street. And if you keep doing the same thing for now a 16-year-old century, and expect a different result, that is the definition of insanity.    And a final thing I will ask our witnesses to comment on is whether we would actually get somewhere if we consent--if we agreed that North Korea could have a very limited number of atomic but not thermonuclear weapons, or is there a real prospect of getting them to be a nuclear-free state.    I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman, and thank you for holding this hearing at a very significant moment.    Our relations with both Koreas go back a long way, and I have a long memory. I still remember sitting right here in this room when the Clinton administration was proposing to us that we have--that we cut a deal, basically, with North Korea, that we would be providing them food and fuel for an agreement not to do what they apparently have been doing, which is--I don't care if you want to call it a hydrogen booster device or a hydrogen nuclear weapon; the fact is they obviously have been spending their money on developing ways of mass murdering other people while we have been providing them the money for their food and fuel.    To say that that is absolutely unacceptable is to put it mildly. And, at that time, I indicated, and several other Republicans, I might add, and a couple of other Democrats as well, I might add, pointed out that that is what would happen, and here it has. Surprise, surprise. They have used their resources to develop weapons of mass destruction. We have subsidized them in using our money to provide them food and fuel, which should be coming out of their, how do you say, hydrogen boosting device development budget.    Let me suggest that this nuclear explosion, and the continued--the obvious continued work that North Korea is doing on nuclear military devices, that should at least put us into a mindset that we have to do something different than what we have been doing.    And let me note that President Abe of Japan has made it very, very clear that there are threats to the Pacific, and I would applaud President Abe for reaching out to South Korea at this moment. President Abe of Japan has gone the extra mile to address sensitivities in South Korea that are left over way from World War II.    And he needs to be applauded for that, and he needs to also be encouraged to rebuild Japan's military strength, so that he can work with the United States of America in preserving the peace in that part of the world, instead of having the United States having to carry the entire load on our own.    So with that said, I would finish by saying the other factor is, which the chairman mentioned, China. Just as it was obvious that the North Korea regime, as corrupt and belligerent and as repressive as it is, would be using their money to develop weapons while we provided them food and fuel, it is just as evident that they have a relationship with Beijing that puts Beijing into a position of influence in North Korea, if not dominance of North Korea.    So let us, again, to the point that we applaud President Abe for reaching out and policies that are going to ultimately bring more stability to that part of the world, let us condemn Beijing for not using its influence in a way that would bring more stability and peace to that region.    So we need to work together on this, and, Mr. Chairman, thank you for calling this hearing. Looking forward to hearing for specifics and information from the witnesses that will help us develop our policy now as we start into this new era.    Thank you.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>412512</t>
   </si>
   <si>
+    <t>Bera</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Mr. Chairman, and thank you for the timeliness of this hearing. A few weeks ago I had a chance to visit the Republic of Korea, visit with our troops, and spend a few days around Christmas with our troops, also visiting with the Korean foreign secretaries, national security folks, et cetera.    I also had a chance to go up to the demilitarized zone and, you know, chat with our troops, see the Republic of Korea troops. The demilitarized zone is an oxymoron. This is one of the most heavily militarized zones in the world, and it is a constant reminder that we are in a cease fire. we are not in a state of peace.    You know, listening to the remarks of my colleagues, I think it is important for us to learn from what we have tried in the past, and so forth. But the conundrum is North Korea is not easy, and it will require a partnership with the countries in that region.    And, in many cases, we all land at the same place, that China really does have to take a leadership role here. China is the one country that does have some leverage with North Korea, but it will take a partnership between, you know, the Chinese Government, the Russians, Japan, our Korean allies, along with U.S. leadership, in order to address this.    It is in all of our interest to deescalate tensions, to try to bring North Korea into the 21st century. And the other goal that I think many Koreans have of seeing reunification, you know, it is not going to be easy. It will take world leadership. It will take the nations, along with the United States, in that region working together, but it can be done if we put our minds to it. And we have to; there is an urgency now, as indicated by the recent North Korean nuclear tests.    It is complicated, and, you know, the President talked about the threats that, you know, we face in the Middle East. But those are not threats to our very existence as a nation, and North Korea, with the hydrogen bomb, with ballistic missile and ICBM capabilities, are a threat to world stability, and we have got to direct this. There is the urgency of now.    And, Mr. Chairman, I look forward to working with you to kind of navigate this path forward, and it is incredibly important.</t>
   </si>
   <si>
@@ -85,6 +112,12 @@
     <t>400071</t>
   </si>
   <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you very much, and thank you, Mr. Chairman, for holding this important hearing. I mean, there is no question that the world has had a problem for a long time with respect to North Korea, particularly their leadership. Whether the grandfather or the father or the son now, they are all equally as crazy, I am afraid, particularly the newest one.    But their own people continue to suffer and to starve. They are the most politically isolated country on the globe. Despite that, they continue--they have absolute contempt for most of the rest of the world, including their neighbors. And with this fourth now in the last number of years nuclear tests, and we have reason to believe it is hydrogen, although that hasn't been confirmed necessarily yet, but, nonetheless, it is terribly disturbing.    I think every administration, from the Clinton administration to the Bush administration to the Obama administration has failed with respect to North Korea, and that is most unfortunate. And now with the increasing sophistication of their missile systems, the United States is at risk as well. But two countries that are even more at risk at, obviously, South Korea and Japan.    And as my colleague, Mr. Rohrabacher from California indicated, China is the key here. China is the only country that has any real influence over North Korea. And the only thing that is going to get China's attention is if those two countries, Japan and South Korea, seriously consider nuclear programs of their own. That is the only thing that is going to get China's attention. It is the last thing China wants.    And so I would urge those two countries to think seriously about this. I am not encouraging them to do it, but even thinking about it and discussing it I think will get China's attention. And maybe China will finally act to put the pressure on North Korea necessary to get them to back off this insanity of one of the poorest countries in the world spending all their money on nuclear weaponry to threaten the rest of the world.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -94,6 +127,12 @@
     <t>412521</t>
   </si>
   <si>
+    <t>Lowenthal</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lowenthal. Thank you, Mr. Chair, for holding this hearing. I find this very interesting. I think the focus of what you have heard a lot is China, what are we going to do to deal with China in terms of the pressure that China has. To me, there are a couple of questions I would like to understand before we get into what we have to do to press China, or to do anything else; that is, what does China want? Where is China at this--not because of our pressure.    Two, I have seen over the past year or so some articles, especially in the New York Times, about Chinese officials, former military officials, retired, talking about the unsustainability of the Kim regime, and that there is a real concern in China about instability in North Korea. I would like to hear that discussion, that there is going to be pressure from the bottom up. People cannot live under those conditions, and the Chinese know this. The Chinese know, and there are real worries about the Chinese, about what that instability is going to lead to in terms of them.    So that leads us to the third point; that is, when we talk about China, knowing that China--it is not getting China involved. China is very involved with what are the consequences. It may have its own agenda about what it wants to do with this. The question is, besides pressure on China--and we have heard a lot, and I am not saying that that is not a potential--what are the ways of partnership with China? What do you see as the opportunities at this moment to be dealing with?    Thank you very much, and I yield back.</t>
   </si>
   <si>
@@ -109,12 +148,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Klingner</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Klingner. Thank you, Mr. Chairman, Ranking Member Sherman, and other distinguished members of the panel. It truly is an honor to be asked to appear before you on such an important issue to our national security.    North Korea's recent nuclear test has again triggered widespread calls to do something tougher on North Korea. But we have been here many times before, and each time administration claims of tough action were taken at face value, pledges to be even tougher the next time were issued, and interest was eventually diverted elsewhere.    More effective action was also hindered by several widely accepted myths about North Korean sanctions. The first myth is that sanctions can't affect an isolated country like North Korea. Targeted financial measures, which are a law enforcement mechanism, are directed against specific entities that violate U.S. laws. Even the most isolated regime, criminal organization, or terrorist group is tied into the global financial order.    The vast majority of all international financial transactions, including those of North Korea, are denominated in dollars, which means they must go through a U.S. Treasury Department regulated bank in the United States. That gives the United States tremendous power and leverage to freeze and seize assets, to impose fines such as a $9-billion fine imposed on a French bank for improper financial transactions with Cuba, Iran, and Sudan, and also to deny access to the U.S. financial system.    As you already pointed out, Mr. Chairman, a second myth is that North Korea is the most heavily sanctioned country in the world. President Obama claims North Korea is the most isolated, the most sanctioned, the most cutoff nation on Earth. That is simply not true. The U.S., the European Union, and the U.N. imposed far more pervasive and compelling measures against Iran than North Korea.    Also, unilaterally, the United States has targeted far fewer North Korean entities than those of the Balkans, Burma, Cuba, Iran, and Zimbabwe. The U.S. has sanctioned more than twice as many Zimbabwean entities as North Korean entities. We have also designated Iran and Burma as primary money laundering concerns, but not North Korea, which is counterfeiting our currency.    The U.S. has sanctioned officials from Burma, Burundi, Congo, Iran, Syria, Sudan, and Zimbabwe, for human rights violations, and sanctioned by name the Presidents of Belarus and Zimbabwe, but not yet sanctioned a single North Korean entity for human rights violations nearly 2 years after a U.N. Commission of Inquiry report concluded the regime was conducting such egregious human rights violations as to constitute crimes against humanity.    The U.S. has also frozen the assets of Sudan, Iranian, and Syrian, but not North Korean, officials and entities for censorship. The list goes on and on, and I have included other examples in my written testimony.    A third myth is there is nothing more the U.S. can impose on North Korea. After he left office, former Assistant Secretary of State Kurt Campbell commented, ``It would be possible for us to put more financial pressure on North Korea. We can make life much more difficult through financial sanctions on North Korea.'' And he also pointed out he was surprised when he was in government to find out that there were about 10 times as many sanctions on Burma as there were on North Korea.    President Obama, Secretary of State John Kerry, and other officials have made similar statements indicating that there are other measures that the U.S. could impose but hasn't.    A fourth myth is that sanctions don't work. As Dr. Cha already pointed out, tougher measures were effective when applied. In 2005, the U.S. designated the Macao-based bank Banco Delta Asia as a money laundering concern for facilitating North Korean illicit activities. As a result of Washington belatedly enforcing its laws, as well as a series of sub rosa meetings by U.S. officials throughout Asia, two dozen financial institutions voluntarily cut back or terminated their business with North Korea.    And a North Korea negotiator admitted to a senior White House official, ``You finally found a way to hurt us.'' Instead, what the U.S. should be doing is implementing the Iran model against North Korea. Just as strong international measures induced Tehran back to the negotiating table, more robust measures are needed to leverage North Korea.    While implementing new sanctions measures is important, fully implementing and enforcing already existing, far-reaching measures is also critical. The U.S. has the tools; we have just lacked the resolve to fully use them.    For years the Obama administration has been hitting the snooze bar on sanctions. It has pursued a policy of timid incrementalism by holding some sanctions in abeyance to be rolled out after the next North Korean violation or provocation. The U.S. instead needs to sharpen the choices for North Korea by raising the risk and cost for those violating laws and U.N. resolutions, not only North Korea but also those that facilitate its actions.    In my written testimony, I provided a lengthy list of very specific recommendations for U.S. and South Korean actions that should be implemented against North Korea. Neither sanctions nor diplomacy alone is a panacea. Both are essential and, along with fully funding U.S. defense requirements, should be mutually reinforcing elements of a comprehensive integrated strategy.    I will conclude my presentation with the same question I posed to this committee 2 years ago. Why has the United States hesitated to impose the same legal measures against North Korea that it has already used against other countries for far less egregious violations of U.S. and international law?    Thank you again for the privilege of appearing before you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Ms. Glaser.</t>
   </si>
   <si>
+    <t>Glaser</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Glaser. Chairman Salmon, Ranking Member Sherman, and distinguished members of the subcommittee, I am honored to have the opportunity to testify today on this very important issue.    As so many of you have already pointed out, cooperation from China, North Korea's main benefactor, is essential to achieving a nuclear-free peninsula. China is North Korea's biggest trading partner. It accounts for 90 percent of North Korea's global trade, provides at least 70 percent of North Korea's crude oil requirements, some 80 percent of its consumer goods, approximately 45 percent of its food, and Chinese investment accounts for almost 95 percent of foreign direct investment in North Korea.    The U.S. should not expect Beijing to completely abandon its ally and forge a common strategy with Washington to squeeze North Korea until it gives up its nuclear weapons or collapses. But it may be possible to persuade China to strictly comply with its existing international commitments to further tighten sanctions on North Korea and to reduce its support or make continued support contingent on specific actions by Pyongyang to return to its denuclearization pledges.    To elicit greater cooperation, the U.S. must attach high priority to North Korea on the U.S.-China agenda, especially in summit meetings between our Presidents, U.S. and Chinese leaders. Cooperation on North Korea should be identified as a litmus test of the proposition that the United States and China can work together where their interests overlap, and the U.S. should then take the following steps.    First, the U.S. should call out China for its failure to enforce existing U.N. sanctions. North Korea has deep networks with Chinese companies and uses these relationships to procure prohibited items from all over the world, routing them through China before onward shipment to North Korea. Designated North Korean entities continue to do business with Chinese companies and visit Chinese ports. North Koreans are reportedly still able to conduct banking transactions in small banks operating in Northeast China along the border. China does not enforce the ban on luxury goods.    Second, the U.S. should press Beijing to agree to the designation of more North Korean individuals and entities in new U.N. Security Council resolution.    Third, the U.S. should encourage Beijing to use its leverage over North Korea in targeted ways to pressure for change in its behavior. China could refuse to engage in new economic projects with North Korea until the government returns to negotiations in good faith. Beijing could reduce the flow of Chinese tourists to North Korea, which has become a significant source of foreign exchange.    Fourth, the United States should encourage China to leverage its assistance to North Korea to influence its behavior. So to deter North Korean long-range missile launches and nuclear tests, China could agree to warn Pyongyang that future provocations would be followed by a cutback in Chinese aid. Beijing could also insist that Pyongyang return to its commitments under the Six Party talks or face substantial reductions in deliveries of crude oil, kerosene, diesel, and gasoline.    And, fifth, the U.S. should press China to not obstruct discussion in U.N. bodies on human rights abuses in North Korea. And my colleague, Victor Cha, has already underscored North Korea's sensitivity to this issue.    Securing cooperation from China to increase pressure on North Korea may be more feasible than in the past. Xi Jinping is a decisive and bold leader who has a clear vision of what is needed to achieve what he calls the ``Chinese dream,'' the great rejuvenation of the Chinese nation. And under Xi's leadership, China has embarked on an effort to end the special relationship of the past between Beijing and Pyongyang and replace it with a normal state-to- state relationship.    Widely viewed as the most powerful leader China has had since Deng Xiaoping, Xi Jinping has sufficient clout to overrule opposition from potent constituencies in China that would resist a tougher stance toward North Korea, especially in the party and the military.    Beijing is not prepared to assume sole responsibility for addressing the North Korean nuclear threat, but China might be willing to do more along the lines that I have outlined if it believes that the U.S. has an effective strategy, is prioritizing the goal of creating a non-nuclear Korean peninsula, and does not seek to use the Korean peninsula to harm Chinese interests.    What does China want? A balance of power in Northeast Asia that is favorable to Chinese interests, and certainly does not threaten Chinese interests.    I believe China does not adamantly oppose Korean unification, but the known burdens and dangers of the status quo today are less risky for China than the uncertainty that unification may bring for Chinese interests.    And I look forward to the discussion. Thank you again.</t>
   </si>
   <si>
@@ -208,6 +253,12 @@
     <t>412272</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman, and welcome to our panel. I begin by taking issue with the ranking member's narrative with respect to Iran in comparing it to North Korea. My narrative would be that this administration took up from the neglect and fecklessness of the previous administration with respect to Iran. And, whether you like it or not, the agreement, the nuclear agreement, is working. They are complying.    And if you want to remove an existential threat to Israel, that is the way we did it, and it is--you know, in my view, it has the best probability of working of any solution offered on the table. Maybe one doesn't like that. Maybe one would have preferred a different alternative. But this is the one the United States Government pursued. I am glad they did. And I think in the long run it will be the best alternative for peace in the region and for taking the nuclear option with respect to Iran off the table.    Now, one of the pieces of leverage we had, in addition to sanctions, was choking off Iran's ability to sell the one product it really has, and that is oil. When it comes to North Korea, we don't have an analogous situation other than weapons. I am not quite sure what it is the North Koreans really have to sell that we can choke off.    Would that be a fair statement, Ms. Glaser?</t>
   </si>
   <si>
@@ -277,6 +328,12 @@
     <t>412477</t>
   </si>
   <si>
+    <t>DesJarlais</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DesJarlais. Thank you, Mr. Chairman, and thank you to our panel of witnesses for your thoughtful insight today. Dr. Cha, I wanted to ask you, do you believe that North Korea would use their nuclear weapons for aggressive actions?</t>
   </si>
   <si>
@@ -316,6 +373,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman. I appreciate Mr. DesJarlais bringing up this issue and each of you expressing your shared concerns about this underappreciation and really a lack of understanding about the threat. I represent Hawaii's 2nd District here. And as you can imagine, being out there in the middle of the Pacific, every time North Korea starts making threats, launching these tests, this is something knowing, as you said, Mr. Klingner, Hawaii and the west coast, at a minimum, already are within range of North Korea's capabilities, both of an ICBM as well as a nuclear weapon.    So this is something that really rings true and is deeply understood by folks in my state who recognize the need for stronger missile defense, who recognize the need for taking this threat with the seriousness that it deserves.    I have got a few questions. The sanctions bill that we passed yesterday, particularly as it relates to hard currency, do you believe that it will have the same effect as in 2005 when it was first put in place? For whomever would like to answer.</t>
   </si>
   <si>
@@ -350,6 +413,9 @@
   </si>
   <si>
     <t>412569</t>
+  </si>
+  <si>
+    <t>Perry</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Perry. Congressman Perry will be fine. Thank you. Thanks to the chairman. Thanks to the panel.    A list of questions here, maybe just all at once, and if you would comment, you know. I understand that we are reportedly in talks with South Korea regarding the reintroduction of nuclear weapons, United States' nuclear weapons onto the peninsula. What is the status of that, if you know? Why wouldn't South Korea be interested?    Regarding the introduction of THAAD, the missile defense interceptor system, why not? Is South Korea concerned that it would be too provocative? Why wouldn't they want that?    Regarding curtailing conventional arms sales, how would that be done? Again, you know, I have been listening, as everybody else has, the whole time saying, ``Why aren't we doing this?'' And you folks are the experts and you don't know, but maybe you can give me some insight into that.    And regarding increasing the pressure on their human rights atrocities, which are just unimaginable to me, what is the best way? What is the best way to do that? And from my standpoint, I, like you folks, don't understand at all why we are not imposing these financial sanctions out of hand, like with your morning coffee. To me, the President should just sign that and on with--and move on to the next terrain feature, but that is my perception.    What would be the response to some of these things from our allies and trading partners in the region? Thank you.</t>
@@ -740,7 +806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,7 +814,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,2525 +836,3007 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
       <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
       <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
       <c r="H20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
       <c r="H25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
       <c r="H27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
       <c r="H31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
       <c r="H33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
       <c r="H36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
       <c r="H37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
       <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
       <c r="H39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
       <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
       <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G44" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
       <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G47" t="s">
+        <v>79</v>
+      </c>
       <c r="H47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G48" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
       <c r="H49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G51" t="s">
+        <v>79</v>
+      </c>
       <c r="H51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G53" t="s">
+        <v>79</v>
+      </c>
       <c r="H53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
       <c r="H55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G57" t="s">
+        <v>79</v>
+      </c>
       <c r="H57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
       <c r="H59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G60" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
       <c r="H61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G63" t="s">
+        <v>79</v>
+      </c>
       <c r="H63" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
       <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G65" t="s">
+        <v>79</v>
+      </c>
       <c r="H65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G66" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G67" t="s">
+        <v>79</v>
+      </c>
       <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G69" t="s">
+        <v>104</v>
+      </c>
       <c r="H69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G70" t="s">
+        <v>32</v>
+      </c>
       <c r="H70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G71" t="s">
+        <v>104</v>
+      </c>
       <c r="H71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
       <c r="H72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G73" t="s">
+        <v>104</v>
+      </c>
       <c r="H73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G74" t="s">
+        <v>32</v>
+      </c>
       <c r="H74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G75" t="s">
+        <v>104</v>
+      </c>
       <c r="H75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G76" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G77" t="s">
+        <v>104</v>
+      </c>
       <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G78" t="s">
+        <v>47</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G79" t="s">
+        <v>104</v>
+      </c>
       <c r="H79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G81" t="s">
+        <v>119</v>
+      </c>
       <c r="H81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G82" t="s">
+        <v>32</v>
+      </c>
       <c r="H82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>99</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G83" t="s">
+        <v>119</v>
+      </c>
       <c r="H83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G84" t="s">
+        <v>32</v>
+      </c>
       <c r="H84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G85" t="s">
+        <v>119</v>
+      </c>
       <c r="H85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G86" t="s">
+        <v>44</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G87" t="s">
+        <v>119</v>
+      </c>
       <c r="H87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G88" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>99</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G89" t="s">
+        <v>119</v>
+      </c>
       <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G90" t="s">
+        <v>47</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G91" t="s">
+        <v>119</v>
+      </c>
       <c r="H91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>111</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G93" t="s">
+        <v>133</v>
+      </c>
       <c r="H93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G94" t="s">
+        <v>32</v>
+      </c>
       <c r="H94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>111</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G95" t="s">
+        <v>133</v>
+      </c>
       <c r="H95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G96" t="s">
+        <v>32</v>
+      </c>
       <c r="H96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G97" t="s">
+        <v>44</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="G98" t="s">
+        <v>47</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>111</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G99" t="s">
+        <v>133</v>
+      </c>
       <c r="H99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>111</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G101" t="s">
+        <v>133</v>
+      </c>
       <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>111</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G103" t="s">
+        <v>133</v>
+      </c>
       <c r="H103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
       <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>125</v>
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98313.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98313.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sherman</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>400343</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rohrabacher</t>
@@ -806,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,7 +826,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,3004 +851,3276 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
         <v>36</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I13" t="s">
         <v>37</v>
       </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" t="s">
         <v>47</v>
       </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G47" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" t="s">
         <v>47</v>
       </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" t="s">
         <v>47</v>
       </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" t="s">
         <v>47</v>
       </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>51</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" t="s">
         <v>47</v>
       </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" t="s">
         <v>47</v>
       </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G57" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
-      </c>
-      <c r="G58" t="s">
-        <v>44</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G59" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
-      </c>
-      <c r="G60" t="s">
-        <v>44</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>48</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
-      </c>
-      <c r="G62" t="s">
-        <v>44</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>48</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G63" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
-      </c>
-      <c r="G66" t="s">
         <v>47</v>
       </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>51</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G67" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H67" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G69" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="H69" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G71" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="H71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I72" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G73" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="H73" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I74" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G75" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="H75" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I75" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
-      </c>
-      <c r="G76" t="s">
-        <v>44</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>48</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G77" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
-      </c>
-      <c r="G78" t="s">
         <v>47</v>
       </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>51</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G79" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I79" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G81" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="H81" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H82" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I82" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G83" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="H83" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I83" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H84" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I84" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G85" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="H85" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I85" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
-      </c>
-      <c r="G86" t="s">
-        <v>44</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>48</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G87" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="H87" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I87" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
-      </c>
-      <c r="G88" t="s">
-        <v>44</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>48</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G89" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="H89" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I89" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
-      </c>
-      <c r="G90" t="s">
         <v>47</v>
       </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>51</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G91" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="H91" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I91" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G93" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="H93" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="I93" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H94" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G95" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="H95" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="I95" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H96" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I96" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
-      </c>
-      <c r="G97" t="s">
-        <v>44</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
-      </c>
-      <c r="G98" t="s">
         <v>47</v>
       </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>51</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G99" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="H99" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="I99" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G101" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="H101" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="I101" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G103" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="H103" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="I103" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J103" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I105" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J105" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>147</v>
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
